--- a/week1/week1_analysis_김태민/result.xlsx
+++ b/week1/week1_analysis_김태민/result.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,241 +442,151 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>127366</t>
+          <t>420008</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128078833.75</v>
+        <v>489.6388888888889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>420165</t>
+          <t>380843</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112857707.3333333</v>
+        <v>464.7916666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>297175</t>
+          <t>403470</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86707331</v>
+        <v>236.9583333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>403470</t>
+          <t>394749</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59044952.75</v>
+        <v>131.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>132156</t>
+          <t>129633</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52140834.33333334</v>
+        <v>110.4583333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>404804</t>
+          <t>510449</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48254525</v>
+        <v>99.02777777777779</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>131485</t>
+          <t>470994</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39362404</v>
+        <v>85.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>231260</t>
+          <t>131842</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34513119.5</v>
+        <v>79.58333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>380843</t>
+          <t>134911</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33861897</v>
+        <v>60.19166666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>133493</t>
+          <t>441997</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31227491.33333333</v>
+        <v>59.83333333333334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>296071</t>
+          <t>296723</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31150631</v>
+        <v>57.625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>134599</t>
+          <t>297175</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18873854</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>394749</t>
+          <t>135158</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15643583</v>
+        <v>53.16666666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>137755</t>
+          <t>297402</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15627247</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>134428</t>
+          <t>137755</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12857732</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>131842</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11734881</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>232218</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10570600</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>382403</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7000592.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>232755</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6036368</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>441218</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5780531</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>441997</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5072943</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>470994</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>3907835</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>133041</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>3245535.666666667</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>471513</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>3228762.5</v>
+        <v>48.1875</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,241 +616,151 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>470994</t>
+          <t>380843</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.365476342544994</v>
+        <v>8.19652650822669</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>137755</t>
+          <t>470994</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.043387893106472</v>
+        <v>2.723797345005051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>394749</t>
+          <t>129633</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9652061057143113</v>
+        <v>1.069214473414292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>404804</t>
+          <t>296723</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7282388923236556</v>
+        <v>0.9600665525005927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>131842</t>
+          <t>394749</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7242792315637252</v>
+        <v>0.9371657742122697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>133493</t>
+          <t>297402</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5945918858461632</v>
+        <v>0.7227884373886424</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>232218</t>
+          <t>134911</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.516409577325164</v>
+        <v>0.7031992205741073</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>133041</t>
+          <t>137755</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5152643136941037</v>
+        <v>0.6951944462291977</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>403470</t>
+          <t>131842</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4980828727366218</v>
+        <v>0.6909409916155409</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>296071</t>
+          <t>510449</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4708557282864501</v>
+        <v>0.5088944303988843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>380843</t>
+          <t>420008</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4682095149030028</v>
+        <v>0.4653016928223503</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>420165</t>
+          <t>135158</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4448436088060697</v>
+        <v>0.4640166357994744</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>131485</t>
+          <t>441997</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4180881568578207</v>
+        <v>0.4414362684146185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>441218</t>
+          <t>403470</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4129867169697161</v>
+        <v>0.3849787578738932</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>127366</t>
+          <t>297175</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4069531102838311</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>232755</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.3964437029804224</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>132156</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.3950704881914413</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>441997</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.3949152262898739</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>382403</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.3766463756882554</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>297175</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.3757995784185153</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>134428</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.3703444024918723</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>134599</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.3571397679756407</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>231260</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.330863837117376</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>471513</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.3200783093009001</v>
+        <v>0.3213711756350046</v>
       </c>
     </row>
   </sheetData>
